--- a/500all/speech_level/speeches_CHRG-114hhrg94889.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94889.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. The Subcommittee on Emergency Preparedness, Response, and Communication will come to order.    The subcommittee is meeting today to receive testimony regarding the bioterrorism threat.    Before I recognize myself for an opening statement, I want to acknowledge a special guest of the subcommittee today. I am pleased to have my goddaughter, Clare, joining us. She is shadowing me all day today to see what it is like to be serving in the House of Representatives.    I now recognize myself for an opening statement.    This morning, the Subcommittee on Emergency Preparedness, Response, and Communications will continue its examination of preparedness for the CBRN attacks to the homeland, with a focus on the threat of bioterrorism. It is what I hope will be the first conversation of many that this subcommittee will hold on biodefense. I intend for us to really dig into all aspects of biopreparedness, both for terrorism and pandemics or other emerging infectious diseases.    We received a Classified briefing last week on the threat of biological and chemical terrorism. How we prevent and prepare for WMD terrorism is a key area of oversight for the full Committee on Homeland Security, as it is for this subcommittee. Our Nation's capacity to mitigate the impacts of all types of biological events is a top National security priority.    Though many of us are new to this subcommittee or to Congress, we are not new to the issue of biodefense. I have personal interest in this area. I have a biology degree from the Air Force Academy, by the way, but I deployed six times, though, to combat zones during my military service, four of those deployments after 9/11. I was deployed to Saudi Arabia in the Middle East during the anthrax scare of 2001. I can tell you, in the military, we even were not prepared to deal with this threat at that time.    On subsequent deployments, I personally received a number of vaccines, to include the anthrax vaccine, smallpox, and we were on continuous antibiotics on my last deployment to Afghanistan. So, as we were responding militarily, we were poking and prodding all of our troops, making sure, you know, that we were ready to go for any of the common threats we thought were out there.    But that makes me wonder, just like when we talked about the chemical terrorism threat, obviously we can't have that be going on for everybody at home, so what do we need to do, you know, to protect the homeland and our society? So that is why it is imperative that we have a system in place and we exercise it, to detect and communicate and respond to this threat, to include the distribution of medical countermeasures.    We understand an attack using biological agents or weapons is a low-probability but high-consequence event. A bio-attack could cause illness or death in hundreds of thousands of people, overwhelm our public health capabilities, and have an economic impact of over $1 trillion per incident. Furthermore, we know there would be a myriad of significant societal and political consequences.    We also understand, thanks to experts such as those that are appearing today before us, that bioterrorist attacks are an urgent and a continuing threat. The Director of National Intelligence testified in February that weapons of mass destruction continue to be a major threat to security of the United States. He noted that biological and chemical materials and technologies, as well as personnel with expertise to use and design them, move easily in the economy. The DNI also stated that infectious disease continues to threaten our security, that a more crowded and interconnected world is increasing the opportunities for human and animal diseases to emerge and spread globally.    The hearing this subcommittee held last month highlighted challenges related to mass-casualty management as it pertains to a chemical event. Bio would be equally as challenging, with the added problem of illness taking days or weeks to present symptoms sometimes.    Because of the legitimate and important life sciences reasons to do research with biological agents, we may not always be able to stop our enemies from developing a biological weapon. Therefore, we must have a robust preparedness and response infrastructure in place. The ability of our health system to respond is of critical importance.    There has been a lot of solid work in assessing biopreparedness over the years, and I am very grateful to Senator Talent, co-chair of the WMD Commission, for being here to share this history and discuss why we seem to be almost stuck in place and time, unable to take steps toward change and enhancing our resiliency in this area.    In preparing for today's hearing, I reviewed this history, and I am honestly surprised and actually shocked that some of the recommendations made 6 or 8 years ago have not been implemented and that, even after the Ebola response, if we can call it that, we cannot seem to identify the Federal official, the one Federal official, who has the responsibility and the authority to coordinate the dozen or so senior officials whose responsibility it is for biological preparedness and defense. It is just baffling to me.    Beyond today's hearing, we will look at disease surveillance, detection, diagnosis, and reporting; we will receive a report from the formidable Blue Ribbon Study Panel on Biodefense, which plans to issue recommendations for changes to U.S. law and policy later on this year; and we will dive deeper into roles and responsibilities in the biodefense space.    But today is all about the threat. Last year, General Clapper stated that the intelligence community assessed that Syria's biological warfare program, ``might have advanced beyond the research and development stage and might be capable of limited agent production''.    In addition to the concern of the Syrian regime using biological weapons, we must also be concerned about ISIS and its affiliates getting ahold of them. As I have stated before, ISIS is better-resourced, more brutal, and more organized than any terrorist organization to date. We know they have an interest in using chemical and biological weapons. In fact, a laptop reportedly retrieved from an ISIS hideout in Syria last year contained plans for weaponizing bubonic plague and a document discussing the advantages of using biological weapons.    We have a very distinguished panel of witnesses here today to discuss this threat. I am hoping to hear from each of you. I want to know what keeps you up at night. How can we best position the Federal Government to respond to the threat of a biological attack?</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412506</t>
   </si>
   <si>
-    <t>Donald M. Payne, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payne. Good morning.    I want to thank Chairman McSally for continuing this subcommittee's work on ensuring that we understand and are prepared to respond to the threats posed by bioterrorism.    Just over a year ago, this subcommittee examined the history of bioterrorism threats, how bio-threats are evolving, and whether the Federal Government is doing what it needs to to prevent and effectively respond to acts of bioterrorism. The message from the hearing was clear: When it comes to biodefense, there is a leadership vacuum.    Ten months after the hearing, that leadership vacuum became publicly apparent as the Federal Government struggled to effectively coordinate its response to the U.S. Ebola case. Despite billions of dollars of investment in developing capabilities to prevent and respond to bioterror events, the lack of comprehensive Federal strategy effectively coordinated by someone at the highest level of Government undermines every dollar we spend.    That is why, last Congress, I supported the WMD Prevention and Preparedness Act, which was introduced by my colleague from New Jersey, Congressman Bill Pascrell, and the former Chairman of Homeland Security, the Honorable Peter King. That legislation would have implemented recommendations that were made in 2008, WMD Commission Report, and, importantly, reestablished the position of Special Assistant to the President on Biodefense. Although the bill did not move in this committee last Congress, I am hopeful that it will be reintroduced and that the lessons learned from the Ebola crisis last fall will incentivize this committee and Congress to act on it.    As I have observed throughout my tenure in Congress, the attention of this body and its Federal partners ebbs and flows from crisis to crisis. I hope that we address the biopreparedness gaps we have observed last year before we become complacent and the next crisis shocks us back into action.    Along those lines, I am interested to hear Senator Talent's views on the threats posed by bioterrorism and the potential of lone-wolf actors and how we should prioritize our efforts with respect to addressing bio-threats.    Despite some challenges at the Federal level, I am encouraged to hear about efforts local public health departments are undertaking to ensure that they will be able to protect the public should a bio-event occur.    Additionally, I would like to commend Deputy Commissioner Raphael on New York City's successful response to the Ebola case last fall. I am interested in understanding how the city became prepared to respond so effectively and whether information shared by the Federal Government was consistent, coordinated, and useful.    Before an Ebola case was diagnosed in the United States, New York City was working to improve its bio-response capabilities by testing its plans to rapidly deploy countermeasures following an anthrax attack in its largest no-notice emergency response exercise to date. I am interested in learning about how lessons learned from previous exercises informed the plans tested last summer, what New York City learned from the August exercise, and whether the lessons learned are being shared with neighboring jurisdictions.    Finally, I would note that our counterparts on the Appropriations Committee are in the process of drafting the fiscal year 2016 funding bill as we speak. I would be remiss if I did not take the opportunity to highlight the important role grant programs like the Urban Areas Security Initiative, also known as UASI, have played in developing local capabilities to prepare to respond to bio-threats. I urge our colleagues to provide robust funding for UASI and to consider restoring funding for reduced or expired grant programs that bolster medical response capabilities, such as the Metropolitan Medical Response System.    I would like to thank the witnesses for being here today, and I look forward to your testimony.    With that, Madam Chairman, I yield back.</t>
   </si>
   <si>
@@ -91,18 +85,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Cairns</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Cairns. Thank you very much, Chairman McSally and Ranking Member Payne, for this opportunity to provide testimony.    The National Collaborative for Bio-Preparedness and the U.S. Critical Illness and Injury Trials Group, both are designed to improve the surveillance, the detection, and the response to and recovery from biological events. The overall goal of these programs is to intervene early enough during the bio-event to save lives. There is a National need for timely intervention in bio-events in order to save lives.    As an emergency physician, I know that timely diagnosis and clinical intervention save lives. I have been involved in a State-wide system of heart-attack care that utilizes emergency medical services, including EMTs and paramedics, to rapidly diagnose and deliver appropriate treatment. This system has been replicated across the country and has been proven to save lives.    Thus, we have shown that we can provide timely, life-saving interventions for anyone, anywhere, anytime, on a State-wide basis. We need to extend these systems Nationally and apply them to biological threats, whether they are due to bioterrorism or natural disease outbreaks.    So the NCBP system was designed to provide rapid recognition of clinically significant biological events, with the mission to provide more effective decision making in health and emergency responses at the Federal, State, and local level.    Last fall, NCBP released an operational system capable of real-time analysis of streaming health data. Users can search by clinical symptoms, syndromes, free text within health records, and incorporate data on hospital resources, weather, critical infrastructure, and internet searches. The NCBP architecture can now support the integration of virtually any data source for simultaneous analysis and layered geographical visualization.    Now, while the system was originally developed as a tool to detect incidents of bioterrorism for use by analysts within the Department of Homeland Security National Biosurveillance Integration Center, DHS now appreciates the system offers the opportunity to collaborate with State and local officials in sectors such as public health preparedness, health care, infrastructure protection, and agriculture. This collaboration provides more sensitive and specific insights than DHS attempting to monitor the Nation single-handedly.    For example, local jurisdictions have a difficult time correlating DHS BioWatch environmental measures data to clinical data. Local officials are challenged to take action in the event of a biological attack without a keen understanding of whether people will become ill. The NCBP system is designed to provide this important perspective and to support the decisions necessary to deploy public health countermeasures.    I suggest Congress support the efforts of the NBIC program to provide NCBP information to local officials.    EMS data, emergency medical services data, has turned out to be most timely and consistent. We have shown that EMS records can detect flu outbreaks earlier than the standard hospital- and laboratory-based approaches. Indeed, we have shown that free text analysis of EMS records can readily identify patients at risk for emerging infections. If Texas had been part of the NCBP system, it likely would have rapidly detected that initial case of Ebola in Dallas last September.    With adequate funding, NCBP will incorporate additional States, implement additional analytic and visualization tools and other data types, as well as engage new local, State, and Federal users.    But there is also a National need for a rapid, effective clinical response system in bio-events. During public health emergencies, reliable patient data are needed to identify groups at high risk for severe illness and death and to assess the impact of the event on critical health care resources. Yet experience with influenza and Ebola indicate that real-time clinical data aggregation, analysis, and reporting remain a strategic vulnerability.    Many of these logical challenges stem from the distributed, even silent, approach we have to emergency preparedness, as delineated by Senator Talent. The good example is, yet again, our response to Ebola. There was no preparedness on how to collect data longitudinally as to whether the medical conditions of the patients presenting were similar, whether medical countermeasures worked, or if any of those measures had any toxicity or interacted with other therapies, or even if they had any effect on long-term outcomes.    The U.S. Critical Illness and Injury Trials Group Program on Emergency Preparedness, which has been supported by ASPR, has been partnering with DHS and HHS agencies to begin to foster collaboration and build new capacities for data collection and research in order to address key questions of a successful response and address these challenges to the chain of resiliency. Failure to aggressively extend, support, and fund this initiative will amount to yet another potential failure of imagination for the next outbreak or act of bioterrorism.    Thank you again for the opportunity to testify today, Madam Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Dr. Cairns.    The Chairman now recognizes Ms. Raphael for 5 minutes.</t>
   </si>
   <si>
-    <t>Raphael</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Raphael. Good morning, Chairman McSally, Ranking Member Payne, and Members of the subcommittee. On behalf of Mayor Bill de Blasio and Health Commissioner Mary Bassett, thank you for the opportunity to testify on New York City's efforts to prepare for and respond to public health emergencies.    I am here today to discuss the vital role that public health plays in detecting and responding to emergencies, the importance of Federal public health and health care preparedness funding, and examples of how these investments have increased preparedness.    Our Nation's public health and health care infrastructure play a critical role in protecting our citizens by quickly detecting acts of bioterrorism or naturally-occurring outbreaks, containing the spread of disease, and mitigating the health impacts of emergencies.    The department currently receives Federal emergency preparedness funding from the CDC Public Health Emergency Preparedness program, the ASPR Hospital Preparedness Program, and the Department of Homeland Security Urban Areas Security Initiative. As a result, the department's public health and health care emergency response capabilities have been expanded, and we have made vital investments in planned development, training and exercises, and skilled and experienced personnel. I want to thank the committee and subcommittee for their continued recognition of the need for these critical Federal programs.    As the largest point of entry in the United States, New York City recognizes the increased likelihood that a naturally-occurring disease in any area of the world can quickly spread to New York City.    In July 2014, New York City began a highly coordinated and expensive multi-agency and multi-jurisdictional response to Ebola. To prepare, we addressed hospital readiness, risk communication, increased lab capacity, and community engagement. We began developing detailed plans for disease surveillance and managing a person under investigation, and our public health surveillance staff investigated hundreds of suspect cases. The public health lab quickly became proficient in testing for and rapidly diagnosing Ebola in record time.    The city chose to focus on readying Bellevue Hospital as New York City's primary Ebola treatment center. Bellevue's quarantine and isolation unit had been supported over the past decade through HPP funding, and, therefore, we could focus on enhancing existing capabilities. When the first confirmed Ebola case in New York City was identified, we were in a strong position to respond.    One of the biggest challenges we currently face is maintaining a permanent state of readiness among city agencies in the health care system. This brings us back to the original impetus for the Federal preparedness funds: September 11 and the subsequent anthrax attacks.    The receipt of letters tainted with anthrax in 2001 led to a State and local requirement to develop mass prophylactic capabilities. The primary method of rapidly dispensing medication in response to a wide-spread aerosolized anthrax attack is through points of dispensing, or PODs, which are temporary emergency sites established to provide free medication to large numbers of people.    Years of planning, training, and exercises culminated in August 2014, when the department conducted the largest no-notice exercise on record, the Rapid Activation for Mass Prophylaxis Exercise, or RAMPEx. This exercise involved notifying and mobilizing over 1,500 city employees and setting up and opening 30 PODs simultaneously.    RAMPEx tested all components of our mass prophylaxis response and definitively demonstrated our ability to rapidly open 30 PODs city-wide in less than 8 hours, with some ready within 6 hours.    RAMPEx also helped identify critical planning gaps and solutions. First, all PODs are ready to open 4 hours before medication from CDC's Strategic National Stockpile would arrive. To address this gap, the department has requested that SNS assets be forward-deployed to New York City and other high-threat, high-density urban areas that have demonstrated an ability to stand up PODs faster than SNS medications can be delivered.    Second, we have not met our POD staffing goals. City-wide prophylaxis distribution requires 33,000 POD staff to support 48 hours of dispensing operations. New York City has made great efforts to recruit, pretrain, and assign staff to a POD site close to home. We are advocating for non-mission-critical Federal staff who live locally to be similarly identified and trained to support POD operations.    Our successful Ebola response and medical countermeasure exercise are a direct result of a decade of Federal investments in local preparedness. However, the greatest danger to our progress is the decline in Federal funding. While overall preparedness funding should be increased, allocations should also be based on risk to reflect the scale-of-threat impact to high-density urban areas and complexity of response.    The department relies on dedicated Federal funding streams to build and maintain critical public health and health care capabilities. Significant cuts in funding jeopardize our existing capabilities. PHEP funding for New York City has decreased 35 percent from its peak in fiscal year 2005, which has led to a 47 percent reduction in the public health preparedness workforce, compromising our ability to detect and respond to disease outbreaks.    I am reading as fast as I can, but I may run a little over.    Similarly, drastic cuts of nearly 40 percent to HPP have impeded health care-sector preparedness and response efforts. There are 55 hospitals, 259 long-term-care facilities, 303 primary care centers, 50 urgent care centers, and 101 dialysis centers in New York City. Preparing a health care system of this size and complexity requires significant resources.    In the immediate months following a particular emergency, jurisdictions have occasionally received one-time funding. New York City is thankful to have received funds to address our Ebola response. However, singular funding allocations are not an adequate substitute for sufficient and sustained base funding.    There is also a critical need for a real-time funding mechanism to support public health emergency response, not just preparedness efforts. Currently, we must use Federal preparedness funds to cover response costs. Federal budgets designed to support public health and health care system preparedness and response capabilities must be increased and sustained.    Chairman McSally and Ranking Member Payne, thank you for inviting me to testify today. We are grateful for your continued support, and I look forward to your questions.</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
   </si>
   <si>
     <t>412670</t>
-  </si>
-  <si>
-    <t>Mark Walker</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Madam Chairman.    I wanted to follow up on what my colleague was just talking about. I am married to a family nurse practitioner who works in a Level 1 trauma center, but, over the last month, she spent about five or six shifts on a trauma helicopter as their chief trauma nurse and really works a lot with these first responders on different issues. These are really the salt-of-the-earth people who face and run into situations without asking questions, whatever it might be. I particularly am concerned about, are we looking out for these guys in the best capacity?    In driving to my question for both Dr. Cairns and former Senator Talent, the medical community seems to have a knowledge or understanding--or they are getting there--of what is going on, of what they might be facing, yet it seems the larger communities, whether you want to call it awareness or the action steps or whatever, it just seems like the threat isn't really understood or appreciated to that level.    My question is, what is it that can be done from local communities, out of our positions here in Congress? What is it that you see would be not just awareness--we talk so much about awareness--but what are the action steps that we could take to bring some of the awareness?    I would address that to both of you gentlemen.</t>
@@ -652,11 +637,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -678,11 +661,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -702,13 +683,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,11 +709,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -756,11 +733,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -780,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -808,11 +781,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -834,11 +805,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -860,11 +829,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -884,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -912,11 +877,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -936,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -964,11 +925,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -990,11 +949,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1016,11 +973,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1042,11 +997,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,11 +1021,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1094,11 +1045,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1118,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1146,11 +1093,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1170,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1196,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1222,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1248,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1274,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1300,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1326,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1354,11 +1285,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1378,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1404,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1430,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1456,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>46</v>
-      </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1482,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1508,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1534,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1560,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>46</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1586,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1612,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1638,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1666,11 +1573,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1690,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1718,11 +1621,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1744,11 +1645,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1770,11 +1669,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1794,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1822,11 +1717,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1846,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1874,11 +1765,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1900,11 +1789,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1924,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1952,11 +1837,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1976,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2002,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2028,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2054,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2080,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2106,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2132,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2158,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2184,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2212,11 +2077,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94889.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94889.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. The Subcommittee on Emergency Preparedness, Response, and Communication will come to order.    The subcommittee is meeting today to receive testimony regarding the bioterrorism threat.    Before I recognize myself for an opening statement, I want to acknowledge a special guest of the subcommittee today. I am pleased to have my goddaughter, Clare, joining us. She is shadowing me all day today to see what it is like to be serving in the House of Representatives.    I now recognize myself for an opening statement.    This morning, the Subcommittee on Emergency Preparedness, Response, and Communications will continue its examination of preparedness for the CBRN attacks to the homeland, with a focus on the threat of bioterrorism. It is what I hope will be the first conversation of many that this subcommittee will hold on biodefense. I intend for us to really dig into all aspects of biopreparedness, both for terrorism and pandemics or other emerging infectious diseases.    We received a Classified briefing last week on the threat of biological and chemical terrorism. How we prevent and prepare for WMD terrorism is a key area of oversight for the full Committee on Homeland Security, as it is for this subcommittee. Our Nation's capacity to mitigate the impacts of all types of biological events is a top National security priority.    Though many of us are new to this subcommittee or to Congress, we are not new to the issue of biodefense. I have personal interest in this area. I have a biology degree from the Air Force Academy, by the way, but I deployed six times, though, to combat zones during my military service, four of those deployments after 9/11. I was deployed to Saudi Arabia in the Middle East during the anthrax scare of 2001. I can tell you, in the military, we even were not prepared to deal with this threat at that time.    On subsequent deployments, I personally received a number of vaccines, to include the anthrax vaccine, smallpox, and we were on continuous antibiotics on my last deployment to Afghanistan. So, as we were responding militarily, we were poking and prodding all of our troops, making sure, you know, that we were ready to go for any of the common threats we thought were out there.    But that makes me wonder, just like when we talked about the chemical terrorism threat, obviously we can't have that be going on for everybody at home, so what do we need to do, you know, to protect the homeland and our society? So that is why it is imperative that we have a system in place and we exercise it, to detect and communicate and respond to this threat, to include the distribution of medical countermeasures.    We understand an attack using biological agents or weapons is a low-probability but high-consequence event. A bio-attack could cause illness or death in hundreds of thousands of people, overwhelm our public health capabilities, and have an economic impact of over $1 trillion per incident. Furthermore, we know there would be a myriad of significant societal and political consequences.    We also understand, thanks to experts such as those that are appearing today before us, that bioterrorist attacks are an urgent and a continuing threat. The Director of National Intelligence testified in February that weapons of mass destruction continue to be a major threat to security of the United States. He noted that biological and chemical materials and technologies, as well as personnel with expertise to use and design them, move easily in the economy. The DNI also stated that infectious disease continues to threaten our security, that a more crowded and interconnected world is increasing the opportunities for human and animal diseases to emerge and spread globally.    The hearing this subcommittee held last month highlighted challenges related to mass-casualty management as it pertains to a chemical event. Bio would be equally as challenging, with the added problem of illness taking days or weeks to present symptoms sometimes.    Because of the legitimate and important life sciences reasons to do research with biological agents, we may not always be able to stop our enemies from developing a biological weapon. Therefore, we must have a robust preparedness and response infrastructure in place. The ability of our health system to respond is of critical importance.    There has been a lot of solid work in assessing biopreparedness over the years, and I am very grateful to Senator Talent, co-chair of the WMD Commission, for being here to share this history and discuss why we seem to be almost stuck in place and time, unable to take steps toward change and enhancing our resiliency in this area.    In preparing for today's hearing, I reviewed this history, and I am honestly surprised and actually shocked that some of the recommendations made 6 or 8 years ago have not been implemented and that, even after the Ebola response, if we can call it that, we cannot seem to identify the Federal official, the one Federal official, who has the responsibility and the authority to coordinate the dozen or so senior officials whose responsibility it is for biological preparedness and defense. It is just baffling to me.    Beyond today's hearing, we will look at disease surveillance, detection, diagnosis, and reporting; we will receive a report from the formidable Blue Ribbon Study Panel on Biodefense, which plans to issue recommendations for changes to U.S. law and policy later on this year; and we will dive deeper into roles and responsibilities in the biodefense space.    But today is all about the threat. Last year, General Clapper stated that the intelligence community assessed that Syria's biological warfare program, ``might have advanced beyond the research and development stage and might be capable of limited agent production''.    In addition to the concern of the Syrian regime using biological weapons, we must also be concerned about ISIS and its affiliates getting ahold of them. As I have stated before, ISIS is better-resourced, more brutal, and more organized than any terrorist organization to date. We know they have an interest in using chemical and biological weapons. In fact, a laptop reportedly retrieved from an ISIS hideout in Syria last year contained plans for weaponizing bubonic plague and a document discussing the advantages of using biological weapons.    We have a very distinguished panel of witnesses here today to discuss this threat. I am hoping to hear from each of you. I want to know what keeps you up at night. How can we best position the Federal Government to respond to the threat of a biological attack?</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412506</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payne. Good morning.    I want to thank Chairman McSally for continuing this subcommittee's work on ensuring that we understand and are prepared to respond to the threats posed by bioterrorism.    Just over a year ago, this subcommittee examined the history of bioterrorism threats, how bio-threats are evolving, and whether the Federal Government is doing what it needs to to prevent and effectively respond to acts of bioterrorism. The message from the hearing was clear: When it comes to biodefense, there is a leadership vacuum.    Ten months after the hearing, that leadership vacuum became publicly apparent as the Federal Government struggled to effectively coordinate its response to the U.S. Ebola case. Despite billions of dollars of investment in developing capabilities to prevent and respond to bioterror events, the lack of comprehensive Federal strategy effectively coordinated by someone at the highest level of Government undermines every dollar we spend.    That is why, last Congress, I supported the WMD Prevention and Preparedness Act, which was introduced by my colleague from New Jersey, Congressman Bill Pascrell, and the former Chairman of Homeland Security, the Honorable Peter King. That legislation would have implemented recommendations that were made in 2008, WMD Commission Report, and, importantly, reestablished the position of Special Assistant to the President on Biodefense. Although the bill did not move in this committee last Congress, I am hopeful that it will be reintroduced and that the lessons learned from the Ebola crisis last fall will incentivize this committee and Congress to act on it.    As I have observed throughout my tenure in Congress, the attention of this body and its Federal partners ebbs and flows from crisis to crisis. I hope that we address the biopreparedness gaps we have observed last year before we become complacent and the next crisis shocks us back into action.    Along those lines, I am interested to hear Senator Talent's views on the threats posed by bioterrorism and the potential of lone-wolf actors and how we should prioritize our efforts with respect to addressing bio-threats.    Despite some challenges at the Federal level, I am encouraged to hear about efforts local public health departments are undertaking to ensure that they will be able to protect the public should a bio-event occur.    Additionally, I would like to commend Deputy Commissioner Raphael on New York City's successful response to the Ebola case last fall. I am interested in understanding how the city became prepared to respond so effectively and whether information shared by the Federal Government was consistent, coordinated, and useful.    Before an Ebola case was diagnosed in the United States, New York City was working to improve its bio-response capabilities by testing its plans to rapidly deploy countermeasures following an anthrax attack in its largest no-notice emergency response exercise to date. I am interested in learning about how lessons learned from previous exercises informed the plans tested last summer, what New York City learned from the August exercise, and whether the lessons learned are being shared with neighboring jurisdictions.    Finally, I would note that our counterparts on the Appropriations Committee are in the process of drafting the fiscal year 2016 funding bill as we speak. I would be remiss if I did not take the opportunity to highlight the important role grant programs like the Urban Areas Security Initiative, also known as UASI, have played in developing local capabilities to prepare to respond to bio-threats. I urge our colleagues to provide robust funding for UASI and to consider restoring funding for reduced or expired grant programs that bolster medical response capabilities, such as the Metropolitan Medical Response System.    I would like to thank the witnesses for being here today, and I look forward to your testimony.    With that, Madam Chairman, I yield back.</t>
   </si>
   <si>
@@ -85,12 +100,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Cairns</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Cairns. Thank you very much, Chairman McSally and Ranking Member Payne, for this opportunity to provide testimony.    The National Collaborative for Bio-Preparedness and the U.S. Critical Illness and Injury Trials Group, both are designed to improve the surveillance, the detection, and the response to and recovery from biological events. The overall goal of these programs is to intervene early enough during the bio-event to save lives. There is a National need for timely intervention in bio-events in order to save lives.    As an emergency physician, I know that timely diagnosis and clinical intervention save lives. I have been involved in a State-wide system of heart-attack care that utilizes emergency medical services, including EMTs and paramedics, to rapidly diagnose and deliver appropriate treatment. This system has been replicated across the country and has been proven to save lives.    Thus, we have shown that we can provide timely, life-saving interventions for anyone, anywhere, anytime, on a State-wide basis. We need to extend these systems Nationally and apply them to biological threats, whether they are due to bioterrorism or natural disease outbreaks.    So the NCBP system was designed to provide rapid recognition of clinically significant biological events, with the mission to provide more effective decision making in health and emergency responses at the Federal, State, and local level.    Last fall, NCBP released an operational system capable of real-time analysis of streaming health data. Users can search by clinical symptoms, syndromes, free text within health records, and incorporate data on hospital resources, weather, critical infrastructure, and internet searches. The NCBP architecture can now support the integration of virtually any data source for simultaneous analysis and layered geographical visualization.    Now, while the system was originally developed as a tool to detect incidents of bioterrorism for use by analysts within the Department of Homeland Security National Biosurveillance Integration Center, DHS now appreciates the system offers the opportunity to collaborate with State and local officials in sectors such as public health preparedness, health care, infrastructure protection, and agriculture. This collaboration provides more sensitive and specific insights than DHS attempting to monitor the Nation single-handedly.    For example, local jurisdictions have a difficult time correlating DHS BioWatch environmental measures data to clinical data. Local officials are challenged to take action in the event of a biological attack without a keen understanding of whether people will become ill. The NCBP system is designed to provide this important perspective and to support the decisions necessary to deploy public health countermeasures.    I suggest Congress support the efforts of the NBIC program to provide NCBP information to local officials.    EMS data, emergency medical services data, has turned out to be most timely and consistent. We have shown that EMS records can detect flu outbreaks earlier than the standard hospital- and laboratory-based approaches. Indeed, we have shown that free text analysis of EMS records can readily identify patients at risk for emerging infections. If Texas had been part of the NCBP system, it likely would have rapidly detected that initial case of Ebola in Dallas last September.    With adequate funding, NCBP will incorporate additional States, implement additional analytic and visualization tools and other data types, as well as engage new local, State, and Federal users.    But there is also a National need for a rapid, effective clinical response system in bio-events. During public health emergencies, reliable patient data are needed to identify groups at high risk for severe illness and death and to assess the impact of the event on critical health care resources. Yet experience with influenza and Ebola indicate that real-time clinical data aggregation, analysis, and reporting remain a strategic vulnerability.    Many of these logical challenges stem from the distributed, even silent, approach we have to emergency preparedness, as delineated by Senator Talent. The good example is, yet again, our response to Ebola. There was no preparedness on how to collect data longitudinally as to whether the medical conditions of the patients presenting were similar, whether medical countermeasures worked, or if any of those measures had any toxicity or interacted with other therapies, or even if they had any effect on long-term outcomes.    The U.S. Critical Illness and Injury Trials Group Program on Emergency Preparedness, which has been supported by ASPR, has been partnering with DHS and HHS agencies to begin to foster collaboration and build new capacities for data collection and research in order to address key questions of a successful response and address these challenges to the chain of resiliency. Failure to aggressively extend, support, and fund this initiative will amount to yet another potential failure of imagination for the next outbreak or act of bioterrorism.    Thank you again for the opportunity to testify today, Madam Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Dr. Cairns.    The Chairman now recognizes Ms. Raphael for 5 minutes.</t>
   </si>
   <si>
+    <t>Raphael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Raphael. Good morning, Chairman McSally, Ranking Member Payne, and Members of the subcommittee. On behalf of Mayor Bill de Blasio and Health Commissioner Mary Bassett, thank you for the opportunity to testify on New York City's efforts to prepare for and respond to public health emergencies.    I am here today to discuss the vital role that public health plays in detecting and responding to emergencies, the importance of Federal public health and health care preparedness funding, and examples of how these investments have increased preparedness.    Our Nation's public health and health care infrastructure play a critical role in protecting our citizens by quickly detecting acts of bioterrorism or naturally-occurring outbreaks, containing the spread of disease, and mitigating the health impacts of emergencies.    The department currently receives Federal emergency preparedness funding from the CDC Public Health Emergency Preparedness program, the ASPR Hospital Preparedness Program, and the Department of Homeland Security Urban Areas Security Initiative. As a result, the department's public health and health care emergency response capabilities have been expanded, and we have made vital investments in planned development, training and exercises, and skilled and experienced personnel. I want to thank the committee and subcommittee for their continued recognition of the need for these critical Federal programs.    As the largest point of entry in the United States, New York City recognizes the increased likelihood that a naturally-occurring disease in any area of the world can quickly spread to New York City.    In July 2014, New York City began a highly coordinated and expensive multi-agency and multi-jurisdictional response to Ebola. To prepare, we addressed hospital readiness, risk communication, increased lab capacity, and community engagement. We began developing detailed plans for disease surveillance and managing a person under investigation, and our public health surveillance staff investigated hundreds of suspect cases. The public health lab quickly became proficient in testing for and rapidly diagnosing Ebola in record time.    The city chose to focus on readying Bellevue Hospital as New York City's primary Ebola treatment center. Bellevue's quarantine and isolation unit had been supported over the past decade through HPP funding, and, therefore, we could focus on enhancing existing capabilities. When the first confirmed Ebola case in New York City was identified, we were in a strong position to respond.    One of the biggest challenges we currently face is maintaining a permanent state of readiness among city agencies in the health care system. This brings us back to the original impetus for the Federal preparedness funds: September 11 and the subsequent anthrax attacks.    The receipt of letters tainted with anthrax in 2001 led to a State and local requirement to develop mass prophylactic capabilities. The primary method of rapidly dispensing medication in response to a wide-spread aerosolized anthrax attack is through points of dispensing, or PODs, which are temporary emergency sites established to provide free medication to large numbers of people.    Years of planning, training, and exercises culminated in August 2014, when the department conducted the largest no-notice exercise on record, the Rapid Activation for Mass Prophylaxis Exercise, or RAMPEx. This exercise involved notifying and mobilizing over 1,500 city employees and setting up and opening 30 PODs simultaneously.    RAMPEx tested all components of our mass prophylaxis response and definitively demonstrated our ability to rapidly open 30 PODs city-wide in less than 8 hours, with some ready within 6 hours.    RAMPEx also helped identify critical planning gaps and solutions. First, all PODs are ready to open 4 hours before medication from CDC's Strategic National Stockpile would arrive. To address this gap, the department has requested that SNS assets be forward-deployed to New York City and other high-threat, high-density urban areas that have demonstrated an ability to stand up PODs faster than SNS medications can be delivered.    Second, we have not met our POD staffing goals. City-wide prophylaxis distribution requires 33,000 POD staff to support 48 hours of dispensing operations. New York City has made great efforts to recruit, pretrain, and assign staff to a POD site close to home. We are advocating for non-mission-critical Federal staff who live locally to be similarly identified and trained to support POD operations.    Our successful Ebola response and medical countermeasure exercise are a direct result of a decade of Federal investments in local preparedness. However, the greatest danger to our progress is the decline in Federal funding. While overall preparedness funding should be increased, allocations should also be based on risk to reflect the scale-of-threat impact to high-density urban areas and complexity of response.    The department relies on dedicated Federal funding streams to build and maintain critical public health and health care capabilities. Significant cuts in funding jeopardize our existing capabilities. PHEP funding for New York City has decreased 35 percent from its peak in fiscal year 2005, which has led to a 47 percent reduction in the public health preparedness workforce, compromising our ability to detect and respond to disease outbreaks.    I am reading as fast as I can, but I may run a little over.    Similarly, drastic cuts of nearly 40 percent to HPP have impeded health care-sector preparedness and response efforts. There are 55 hospitals, 259 long-term-care facilities, 303 primary care centers, 50 urgent care centers, and 101 dialysis centers in New York City. Preparing a health care system of this size and complexity requires significant resources.    In the immediate months following a particular emergency, jurisdictions have occasionally received one-time funding. New York City is thankful to have received funds to address our Ebola response. However, singular funding allocations are not an adequate substitute for sufficient and sustained base funding.    There is also a critical need for a real-time funding mechanism to support public health emergency response, not just preparedness efforts. Currently, we must use Federal preparedness funds to cover response costs. Federal budgets designed to support public health and health care system preparedness and response capabilities must be increased and sustained.    Chairman McSally and Ranking Member Payne, thank you for inviting me to testify today. We are grateful for your continued support, and I look forward to your questions.</t>
   </si>
   <si>
@@ -143,6 +164,12 @@
   </si>
   <si>
     <t>412670</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Madam Chairman.    I wanted to follow up on what my colleague was just talking about. I am married to a family nurse practitioner who works in a Level 1 trauma center, but, over the last month, she spent about five or six shifts on a trauma helicopter as their chief trauma nurse and really works a lot with these first responders on different issues. These are really the salt-of-the-earth people who face and run into situations without asking questions, whatever it might be. I particularly am concerned about, are we looking out for these guys in the best capacity?    In driving to my question for both Dr. Cairns and former Senator Talent, the medical community seems to have a knowledge or understanding--or they are getting there--of what is going on, of what they might be facing, yet it seems the larger communities, whether you want to call it awareness or the action steps or whatever, it just seems like the threat isn't really understood or appreciated to that level.    My question is, what is it that can be done from local communities, out of our positions here in Congress? What is it that you see would be not just awareness--we talk so much about awareness--but what are the action steps that we could take to bring some of the awareness?    I would address that to both of you gentlemen.</t>
@@ -587,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +622,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,1469 +644,1743 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
       <c r="H37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
       <c r="H39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94889.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94889.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412611</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>McSally</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>412506</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Payne</t>
@@ -614,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,1740 +656,1892 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>83</v>
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
